--- a/data/trans_dic/P25C$otrosprofesionales_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25C$otrosprofesionales_2023-Estudios-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.01372304725667973</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.005890719444954319</v>
+        <v>0.00589071944495432</v>
       </c>
     </row>
     <row r="5">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02289997411570506</v>
+        <v>0.02372683584027033</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05844718908633207</v>
+        <v>0.07317226826389862</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02067859371088123</v>
+        <v>0.01826799896484741</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.003289865303225153</v>
+        <v>0.002860385648118514</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.002795313850503541</v>
+        <v>0.002812182396084629</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.004185486349543415</v>
+        <v>0.004574905157947107</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02480809837715203</v>
+        <v>0.02683406709880611</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02972252551066413</v>
+        <v>0.02785282337324463</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0203133398317517</v>
+        <v>0.02094282501493343</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.004646777755169452</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.04192264784456376</v>
+        <v>0.04192264784456377</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.01923339944878491</v>
@@ -694,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01870422171365628</v>
+        <v>0.01564433502287368</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.008136777393713485</v>
+        <v>0.008693602488554488</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02359205533139138</v>
+        <v>0.02396850858354182</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0827925697198509</v>
+        <v>0.08637025981314826</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0403556519498228</v>
+        <v>0.0397893073665174</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.007490150802035527</v>
+        <v>0.007490150802035524</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.01944384856913649</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.002513063194542089</v>
+        <v>0.002990603576735492</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01013752877155453</v>
+        <v>0.009728469584092918</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.007502995604324681</v>
+        <v>0.007107092362557805</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01505146812109264</v>
+        <v>0.01616022088809844</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03250532588690318</v>
+        <v>0.03472343246829042</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01876073377679099</v>
+        <v>0.01822890537377284</v>
       </c>
     </row>
     <row r="16">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4033</v>
+        <v>4179</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>2750</v>
+        <v>3443</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>4615</v>
+        <v>4077</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1094</v>
+        <v>951</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2321</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>8248</v>
+        <v>8922</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>6602</v>
+        <v>6187</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>11266</v>
+        <v>11615</v>
       </c>
     </row>
     <row r="12">
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1788</v>
+        <v>1495</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1988</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3508</v>
+        <v>3564</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7914</v>
+        <v>8256</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9858</v>
+        <v>9720</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1652</v>
+        <v>1966</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3698</v>
+        <v>3549</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>7669</v>
+        <v>7264</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>9893</v>
+        <v>10622</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>11857</v>
+        <v>12666</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>19175</v>
+        <v>18631</v>
       </c>
     </row>
     <row r="20">
